--- a/data_year/zb/建筑业/建筑业企业概况.xlsx
+++ b/data_year/zb/建筑业/建筑业企业概况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,1283 +528,765 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>458.58</v>
+        <v>3315.079</v>
       </c>
       <c r="C2" t="n">
-        <v>12778</v>
+        <v>61280</v>
       </c>
       <c r="D2" t="n">
-        <v>3241.3</v>
+        <v>73343.64397</v>
       </c>
       <c r="E2" t="n">
-        <v>5053.79</v>
+        <v>18148.58517</v>
       </c>
       <c r="F2" t="n">
-        <v>635.6</v>
+        <v>576.8711</v>
       </c>
       <c r="G2" t="n">
-        <v>9030</v>
+        <v>4810</v>
       </c>
       <c r="H2" t="n">
-        <v>67.48999999999999</v>
+        <v>439.67882</v>
       </c>
       <c r="I2" t="n">
-        <v>4.4</v>
+        <v>9.795</v>
       </c>
       <c r="J2" t="n">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="K2" t="n">
-        <v>1994.3</v>
+        <v>4160.4378</v>
       </c>
       <c r="L2" t="n">
-        <v>47518</v>
+        <v>71863</v>
       </c>
       <c r="M2" t="n">
-        <v>12497.5961</v>
+        <v>96031.1338</v>
       </c>
       <c r="N2" t="n">
-        <v>99.18000000000001</v>
+        <v>443.95782</v>
       </c>
       <c r="O2" t="n">
-        <v>8.220000000000001</v>
+        <v>12.1647</v>
       </c>
       <c r="P2" t="n">
-        <v>635</v>
+        <v>416</v>
       </c>
       <c r="Q2" t="n">
-        <v>4035.84</v>
+        <v>3655.26802</v>
       </c>
       <c r="R2" t="n">
-        <v>887.5</v>
+        <v>246.528</v>
       </c>
       <c r="S2" t="n">
-        <v>24756</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>768.09</v>
+        <v>3165.9665000001</v>
       </c>
       <c r="C3" t="n">
-        <v>17637</v>
+        <v>62095</v>
       </c>
       <c r="D3" t="n">
-        <v>6047.25</v>
+        <v>90449.1751700001</v>
       </c>
       <c r="E3" t="n">
-        <v>5362.81</v>
+        <v>20436.8109700001</v>
       </c>
       <c r="F3" t="n">
-        <v>590.65</v>
+        <v>444.9354</v>
       </c>
       <c r="G3" t="n">
-        <v>8264</v>
+        <v>4642</v>
       </c>
       <c r="H3" t="n">
-        <v>73.06</v>
+        <v>658.16801</v>
       </c>
       <c r="I3" t="n">
-        <v>4.3</v>
+        <v>9.868499999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="K3" t="n">
-        <v>2110.7</v>
+        <v>3852.4733000001</v>
       </c>
       <c r="L3" t="n">
-        <v>45893</v>
+        <v>72280</v>
       </c>
       <c r="M3" t="n">
-        <v>15361.6</v>
+        <v>116463.32067</v>
       </c>
       <c r="N3" t="n">
-        <v>102.55</v>
+        <v>612.67906</v>
       </c>
       <c r="O3" t="n">
-        <v>7.68</v>
+        <v>11.3056</v>
       </c>
       <c r="P3" t="n">
-        <v>622</v>
+        <v>393</v>
       </c>
       <c r="Q3" t="n">
-        <v>3775.89</v>
+        <v>4306.48746</v>
       </c>
       <c r="R3" t="n">
-        <v>739.9400000000001</v>
+        <v>220.3973</v>
       </c>
       <c r="S3" t="n">
-        <v>19096</v>
+        <v>4847</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1110.35</v>
+        <v>3569.9691000002</v>
       </c>
       <c r="C4" t="n">
-        <v>26196</v>
+        <v>65358</v>
       </c>
       <c r="D4" t="n">
-        <v>9400.57</v>
+        <v>108241.9402</v>
       </c>
       <c r="E4" t="n">
-        <v>5582.86</v>
+        <v>22930.18531</v>
       </c>
       <c r="F4" t="n">
-        <v>543.75</v>
+        <v>457.7807</v>
       </c>
       <c r="G4" t="n">
-        <v>7536</v>
+        <v>4602</v>
       </c>
       <c r="H4" t="n">
-        <v>91.38</v>
+        <v>476.98842</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>10.2824</v>
       </c>
       <c r="J4" t="n">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="K4" t="n">
-        <v>2245.2</v>
+        <v>4267.2422</v>
       </c>
       <c r="L4" t="n">
-        <v>47820</v>
+        <v>75280</v>
       </c>
       <c r="M4" t="n">
-        <v>18527.2</v>
+        <v>137217.858</v>
       </c>
       <c r="N4" t="n">
-        <v>113.87</v>
+        <v>649.74199</v>
       </c>
       <c r="O4" t="n">
-        <v>7.41</v>
+        <v>12.9682</v>
       </c>
       <c r="P4" t="n">
-        <v>632</v>
+        <v>385</v>
       </c>
       <c r="Q4" t="n">
-        <v>3338.5</v>
+        <v>4919.00209</v>
       </c>
       <c r="R4" t="n">
-        <v>579.1799999999999</v>
+        <v>216.2418</v>
       </c>
       <c r="S4" t="n">
-        <v>13177</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1371.3</v>
+        <v>3927.0365</v>
       </c>
       <c r="C5" t="n">
-        <v>30803</v>
+        <v>70682</v>
       </c>
       <c r="D5" t="n">
-        <v>13499.81</v>
+        <v>133872.68365</v>
       </c>
       <c r="E5" t="n">
-        <v>6060.23</v>
+        <v>20739.01633</v>
       </c>
       <c r="F5" t="n">
-        <v>524.3200000000001</v>
+        <v>387.6584</v>
       </c>
       <c r="G5" t="n">
-        <v>6638</v>
+        <v>3847</v>
       </c>
       <c r="H5" t="n">
-        <v>129.39</v>
+        <v>607.72487</v>
       </c>
       <c r="I5" t="n">
-        <v>6.04</v>
+        <v>10.1422</v>
       </c>
       <c r="J5" t="n">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="K5" t="n">
-        <v>2414.3</v>
+        <v>4528.3551</v>
       </c>
       <c r="L5" t="n">
-        <v>48688</v>
+        <v>78919</v>
       </c>
       <c r="M5" t="n">
-        <v>23083.9</v>
+        <v>160366.06329</v>
       </c>
       <c r="N5" t="n">
-        <v>123.71</v>
+        <v>621.96191</v>
       </c>
       <c r="O5" t="n">
-        <v>7.04</v>
+        <v>16.4604</v>
       </c>
       <c r="P5" t="n">
-        <v>535</v>
+        <v>390</v>
       </c>
       <c r="Q5" t="n">
-        <v>3270.73</v>
+        <v>4524.67653</v>
       </c>
       <c r="R5" t="n">
-        <v>505.57</v>
+        <v>187.0576</v>
       </c>
       <c r="S5" t="n">
-        <v>10425</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1631.64</v>
+        <v>3966.7201</v>
       </c>
       <c r="C6" t="n">
-        <v>42649</v>
+        <v>73169</v>
       </c>
       <c r="D6" t="n">
-        <v>18600.23</v>
+        <v>148657.29309</v>
       </c>
       <c r="E6" t="n">
-        <v>7325.61</v>
+        <v>22069.4484</v>
       </c>
       <c r="F6" t="n">
-        <v>467.36</v>
+        <v>371.1511</v>
       </c>
       <c r="G6" t="n">
-        <v>6513</v>
+        <v>3753</v>
       </c>
       <c r="H6" t="n">
-        <v>202.46</v>
+        <v>643.2032</v>
       </c>
       <c r="I6" t="n">
-        <v>8.1</v>
+        <v>8.6264</v>
       </c>
       <c r="J6" t="n">
-        <v>386</v>
+        <v>261</v>
       </c>
       <c r="K6" t="n">
-        <v>2500.28</v>
+        <v>4536.9721</v>
       </c>
       <c r="L6" t="n">
-        <v>59018</v>
+        <v>81141</v>
       </c>
       <c r="M6" t="n">
-        <v>29021.5</v>
+        <v>176713.41618</v>
       </c>
       <c r="N6" t="n">
-        <v>137.03</v>
+        <v>661.67484</v>
       </c>
       <c r="O6" t="n">
-        <v>6.8</v>
+        <v>15.4415</v>
       </c>
       <c r="P6" t="n">
-        <v>511</v>
+        <v>369</v>
       </c>
       <c r="Q6" t="n">
-        <v>2756.12</v>
+        <v>4681.79665</v>
       </c>
       <c r="R6" t="n">
-        <v>386.4</v>
+        <v>175.033</v>
       </c>
       <c r="S6" t="n">
-        <v>8959</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1838.92</v>
+        <v>4479.9799000002</v>
       </c>
       <c r="C7" t="n">
-        <v>43749</v>
+        <v>73398</v>
       </c>
       <c r="D7" t="n">
-        <v>22883.3</v>
+        <v>153326.41954</v>
       </c>
       <c r="E7" t="n">
-        <v>8432.030000000001</v>
+        <v>21767.07263</v>
       </c>
       <c r="F7" t="n">
-        <v>480</v>
+        <v>417.565</v>
       </c>
       <c r="G7" t="n">
-        <v>6007</v>
+        <v>3603</v>
       </c>
       <c r="H7" t="n">
-        <v>249.03</v>
+        <v>606.24162</v>
       </c>
       <c r="I7" t="n">
-        <v>10.8</v>
+        <v>9.2164</v>
       </c>
       <c r="J7" t="n">
-        <v>388</v>
+        <v>249</v>
       </c>
       <c r="K7" t="n">
-        <v>2699.92</v>
+        <v>5093.6668000002</v>
       </c>
       <c r="L7" t="n">
-        <v>58750</v>
+        <v>80911</v>
       </c>
       <c r="M7" t="n">
-        <v>34552.1</v>
+        <v>180757.47357</v>
       </c>
       <c r="N7" t="n">
-        <v>172.54</v>
+        <v>693.34387</v>
       </c>
       <c r="O7" t="n">
-        <v>8.6</v>
+        <v>17.8663</v>
       </c>
       <c r="P7" t="n">
-        <v>516</v>
+        <v>343</v>
       </c>
       <c r="Q7" t="n">
-        <v>2815.2</v>
+        <v>4364.39591</v>
       </c>
       <c r="R7" t="n">
-        <v>361.6</v>
+        <v>169.0392</v>
       </c>
       <c r="S7" t="n">
-        <v>8090</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2061.55</v>
+        <v>4553.4</v>
       </c>
       <c r="C8" t="n">
-        <v>46711</v>
+        <v>75722</v>
       </c>
       <c r="D8" t="n">
-        <v>28918.73</v>
+        <v>164119.81426</v>
       </c>
       <c r="E8" t="n">
-        <v>9218.559999999999</v>
+        <v>23849.01755</v>
       </c>
       <c r="F8" t="n">
-        <v>467.6</v>
+        <v>438.1</v>
       </c>
       <c r="G8" t="n">
-        <v>5555</v>
+        <v>3593</v>
       </c>
       <c r="H8" t="n">
-        <v>274.87</v>
+        <v>525.2100799999999</v>
       </c>
       <c r="I8" t="n">
-        <v>8.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>370</v>
+        <v>222</v>
       </c>
       <c r="K8" t="n">
-        <v>2878.16</v>
+        <v>5184.5</v>
       </c>
       <c r="L8" t="n">
-        <v>60166</v>
+        <v>83017</v>
       </c>
       <c r="M8" t="n">
-        <v>41557.16</v>
+        <v>193566.77736</v>
       </c>
       <c r="N8" t="n">
-        <v>240.52</v>
+        <v>683.98977</v>
       </c>
       <c r="O8" t="n">
-        <v>8.9</v>
+        <v>16.1</v>
       </c>
       <c r="P8" t="n">
-        <v>479</v>
+        <v>326</v>
       </c>
       <c r="Q8" t="n">
-        <v>2904.48</v>
+        <v>4388.7457</v>
       </c>
       <c r="R8" t="n">
-        <v>332</v>
+        <v>168.2</v>
       </c>
       <c r="S8" t="n">
-        <v>7051</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2325.36</v>
+        <v>4915.7829000003</v>
       </c>
       <c r="C9" t="n">
-        <v>49294</v>
+        <v>81196</v>
       </c>
       <c r="D9" t="n">
-        <v>36580.89</v>
+        <v>181864.60194</v>
       </c>
       <c r="E9" t="n">
-        <v>10630.9</v>
+        <v>26414.37664</v>
       </c>
       <c r="F9" t="n">
-        <v>470.12</v>
+        <v>428.4259</v>
       </c>
       <c r="G9" t="n">
-        <v>5319</v>
+        <v>3453</v>
       </c>
       <c r="H9" t="n">
-        <v>396.32</v>
+        <v>547.30171</v>
       </c>
       <c r="I9" t="n">
-        <v>11.43</v>
+        <v>7.7144</v>
       </c>
       <c r="J9" t="n">
-        <v>365</v>
+        <v>218</v>
       </c>
       <c r="K9" t="n">
-        <v>3133.71</v>
+        <v>5529.6339000004</v>
       </c>
       <c r="L9" t="n">
-        <v>62074</v>
+        <v>88074</v>
       </c>
       <c r="M9" t="n">
-        <v>51043.71</v>
+        <v>213943.55899</v>
       </c>
       <c r="N9" t="n">
-        <v>281.95</v>
+        <v>799.36158</v>
       </c>
       <c r="O9" t="n">
-        <v>9.81</v>
+        <v>19.0321</v>
       </c>
       <c r="P9" t="n">
-        <v>482</v>
+        <v>334</v>
       </c>
       <c r="Q9" t="n">
-        <v>3153.65</v>
+        <v>4317.91712</v>
       </c>
       <c r="R9" t="n">
-        <v>316.99</v>
+        <v>158.6786</v>
       </c>
       <c r="S9" t="n">
-        <v>6614</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2556.4</v>
+        <v>4718.4</v>
       </c>
       <c r="C10" t="n">
-        <v>59100</v>
+        <v>90171</v>
       </c>
       <c r="D10" t="n">
-        <v>45880.52</v>
+        <v>192545.49</v>
       </c>
       <c r="E10" t="n">
-        <v>12231.65743</v>
+        <v>28273.22</v>
       </c>
       <c r="F10" t="n">
-        <v>472.106</v>
+        <v>438.51</v>
       </c>
       <c r="G10" t="n">
-        <v>5315</v>
+        <v>3358</v>
       </c>
       <c r="H10" t="n">
-        <v>387.13523</v>
+        <v>639.04</v>
       </c>
       <c r="I10" t="n">
-        <v>9.2142</v>
+        <v>7.58</v>
       </c>
       <c r="J10" t="n">
-        <v>363</v>
+        <v>203</v>
       </c>
       <c r="K10" t="n">
-        <v>3314.9503</v>
+        <v>5305.23</v>
       </c>
       <c r="L10" t="n">
-        <v>71095</v>
+        <v>96544</v>
       </c>
       <c r="M10" t="n">
-        <v>62036.80608</v>
+        <v>225816.86</v>
       </c>
       <c r="N10" t="n">
-        <v>321.0668</v>
+        <v>743.74</v>
       </c>
       <c r="O10" t="n">
-        <v>10.478</v>
+        <v>17.62</v>
       </c>
       <c r="P10" t="n">
-        <v>474</v>
+        <v>266</v>
       </c>
       <c r="Q10" t="n">
-        <v>3216.43358</v>
+        <v>3615.37</v>
       </c>
       <c r="R10" t="n">
-        <v>266.779</v>
+        <v>123.23</v>
       </c>
       <c r="S10" t="n">
-        <v>5843</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2885.7479</v>
+        <v>4884.84</v>
       </c>
       <c r="C11" t="n">
-        <v>59661</v>
+        <v>97737</v>
       </c>
       <c r="D11" t="n">
-        <v>57586.18578</v>
+        <v>212745.29</v>
       </c>
       <c r="E11" t="n">
-        <v>15190.05043</v>
+        <v>30662.35253</v>
       </c>
       <c r="F11" t="n">
-        <v>518.9247</v>
+        <v>406.0812</v>
       </c>
       <c r="G11" t="n">
-        <v>5009</v>
+        <v>3309</v>
       </c>
       <c r="H11" t="n">
-        <v>415.16992</v>
+        <v>593.89464</v>
       </c>
       <c r="I11" t="n">
-        <v>10.2379</v>
+        <v>6.7506</v>
       </c>
       <c r="J11" t="n">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="K11" t="n">
-        <v>3672.5571</v>
+        <v>5427.0769</v>
       </c>
       <c r="L11" t="n">
-        <v>70817</v>
+        <v>103805</v>
       </c>
       <c r="M11" t="n">
-        <v>76807.74163999999</v>
+        <v>248443.27073</v>
       </c>
       <c r="N11" t="n">
-        <v>334.58979</v>
+        <v>750.79943</v>
       </c>
       <c r="O11" t="n">
-        <v>10.8563</v>
+        <v>14.3191</v>
       </c>
       <c r="P11" t="n">
-        <v>444</v>
+        <v>245</v>
       </c>
       <c r="Q11" t="n">
-        <v>3281.74572</v>
+        <v>3690.94265</v>
       </c>
       <c r="R11" t="n">
-        <v>246.7903</v>
+        <v>115.0865</v>
       </c>
       <c r="S11" t="n">
-        <v>5352</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3315.079</v>
+        <v>4805.41</v>
       </c>
       <c r="C12" t="n">
-        <v>61280</v>
+        <v>110378</v>
       </c>
       <c r="D12" t="n">
-        <v>73343.64397</v>
+        <v>223434.16</v>
       </c>
       <c r="E12" t="n">
-        <v>18148.58517</v>
+        <v>34882.16751</v>
       </c>
       <c r="F12" t="n">
-        <v>576.8711</v>
+        <v>432.2673</v>
       </c>
       <c r="G12" t="n">
-        <v>4810</v>
+        <v>3746</v>
       </c>
       <c r="H12" t="n">
-        <v>439.67882</v>
+        <v>962.31661</v>
       </c>
       <c r="I12" t="n">
-        <v>9.795</v>
+        <v>7.7765</v>
       </c>
       <c r="J12" t="n">
-        <v>331</v>
+        <v>183</v>
       </c>
       <c r="K12" t="n">
-        <v>4160.4378</v>
+        <v>5366.9756</v>
       </c>
       <c r="L12" t="n">
-        <v>71863</v>
+        <v>116722</v>
       </c>
       <c r="M12" t="n">
-        <v>96031.1338</v>
+        <v>263947.39286</v>
       </c>
       <c r="N12" t="n">
-        <v>443.95782</v>
+        <v>1211.47779</v>
       </c>
       <c r="O12" t="n">
-        <v>12.1647</v>
+        <v>18.0454</v>
       </c>
       <c r="P12" t="n">
-        <v>416</v>
+        <v>235</v>
       </c>
       <c r="Q12" t="n">
-        <v>3655.26802</v>
+        <v>3457.25537</v>
       </c>
       <c r="R12" t="n">
-        <v>246.528</v>
+        <v>103.4711</v>
       </c>
       <c r="S12" t="n">
-        <v>5026</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3165.9665000001</v>
+        <v>4710.6704000004</v>
       </c>
       <c r="C13" t="n">
-        <v>62095</v>
+        <v>122479</v>
       </c>
       <c r="D13" t="n">
-        <v>90449.1751700001</v>
+        <v>249899.23513</v>
       </c>
       <c r="E13" t="n">
-        <v>20436.8109700001</v>
+        <v>37629.3515</v>
       </c>
       <c r="F13" t="n">
-        <v>444.9354</v>
+        <v>459.6161</v>
       </c>
       <c r="G13" t="n">
-        <v>4642</v>
+        <v>3920</v>
       </c>
       <c r="H13" t="n">
-        <v>658.16801</v>
+        <v>958.96029</v>
       </c>
       <c r="I13" t="n">
-        <v>9.868499999999999</v>
+        <v>7.2383</v>
       </c>
       <c r="J13" t="n">
-        <v>303</v>
+        <v>189</v>
       </c>
       <c r="K13" t="n">
-        <v>3852.4733000001</v>
+        <v>5282.3943</v>
       </c>
       <c r="L13" t="n">
-        <v>72280</v>
+        <v>128743</v>
       </c>
       <c r="M13" t="n">
-        <v>116463.32067</v>
+        <v>293027.41778</v>
       </c>
       <c r="N13" t="n">
-        <v>612.67906</v>
+        <v>1295.66101</v>
       </c>
       <c r="O13" t="n">
-        <v>11.3056</v>
+        <v>14.6744</v>
       </c>
       <c r="P13" t="n">
-        <v>393</v>
+        <v>227</v>
       </c>
       <c r="Q13" t="n">
-        <v>4306.48746</v>
+        <v>3295.09393</v>
       </c>
       <c r="R13" t="n">
-        <v>220.3973</v>
+        <v>90.1951</v>
       </c>
       <c r="S13" t="n">
-        <v>4847</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3569.9691000002</v>
-      </c>
-      <c r="C14" t="n">
-        <v>65358</v>
-      </c>
-      <c r="D14" t="n">
-        <v>108241.9402</v>
-      </c>
-      <c r="E14" t="n">
-        <v>22930.18531</v>
-      </c>
-      <c r="F14" t="n">
-        <v>457.7807</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4602</v>
-      </c>
-      <c r="H14" t="n">
-        <v>476.98842</v>
-      </c>
-      <c r="I14" t="n">
-        <v>10.2824</v>
-      </c>
-      <c r="J14" t="n">
-        <v>295</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>4267.2422</v>
+        <v>5184.0228</v>
       </c>
       <c r="L14" t="n">
-        <v>75280</v>
+        <v>143621</v>
       </c>
       <c r="M14" t="n">
-        <v>137217.858</v>
-      </c>
-      <c r="N14" t="n">
-        <v>649.74199</v>
-      </c>
-      <c r="O14" t="n">
-        <v>12.9682</v>
-      </c>
-      <c r="P14" t="n">
-        <v>385</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4919.00209</v>
-      </c>
-      <c r="R14" t="n">
-        <v>216.2418</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4640</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3927.0365</v>
-      </c>
-      <c r="C15" t="n">
-        <v>70682</v>
-      </c>
-      <c r="D15" t="n">
-        <v>133872.68365</v>
-      </c>
-      <c r="E15" t="n">
-        <v>20739.01633</v>
-      </c>
-      <c r="F15" t="n">
-        <v>387.6584</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3847</v>
-      </c>
-      <c r="H15" t="n">
-        <v>607.72487</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10.1422</v>
-      </c>
-      <c r="J15" t="n">
-        <v>272</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4528.3551</v>
-      </c>
-      <c r="L15" t="n">
-        <v>78919</v>
-      </c>
-      <c r="M15" t="n">
-        <v>160366.06329</v>
-      </c>
-      <c r="N15" t="n">
-        <v>621.96191</v>
-      </c>
-      <c r="O15" t="n">
-        <v>16.4604</v>
-      </c>
-      <c r="P15" t="n">
-        <v>390</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4524.67653</v>
-      </c>
-      <c r="R15" t="n">
-        <v>187.0576</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3728</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3966.7201</v>
-      </c>
-      <c r="C16" t="n">
-        <v>73169</v>
-      </c>
-      <c r="D16" t="n">
-        <v>148657.29309</v>
-      </c>
-      <c r="E16" t="n">
-        <v>22069.4484</v>
-      </c>
-      <c r="F16" t="n">
-        <v>371.1511</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3753</v>
-      </c>
-      <c r="H16" t="n">
-        <v>643.2032</v>
-      </c>
-      <c r="I16" t="n">
-        <v>8.6264</v>
-      </c>
-      <c r="J16" t="n">
-        <v>261</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4536.9721</v>
-      </c>
-      <c r="L16" t="n">
-        <v>81141</v>
-      </c>
-      <c r="M16" t="n">
-        <v>176713.41618</v>
-      </c>
-      <c r="N16" t="n">
-        <v>661.67484</v>
-      </c>
-      <c r="O16" t="n">
-        <v>15.4415</v>
-      </c>
-      <c r="P16" t="n">
-        <v>369</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4681.79665</v>
-      </c>
-      <c r="R16" t="n">
-        <v>175.033</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3589</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4479.9799000002</v>
-      </c>
-      <c r="C17" t="n">
-        <v>73398</v>
-      </c>
-      <c r="D17" t="n">
-        <v>153326.41954</v>
-      </c>
-      <c r="E17" t="n">
-        <v>21767.07263</v>
-      </c>
-      <c r="F17" t="n">
-        <v>417.565</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3603</v>
-      </c>
-      <c r="H17" t="n">
-        <v>606.24162</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9.2164</v>
-      </c>
-      <c r="J17" t="n">
-        <v>249</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5093.6668000002</v>
-      </c>
-      <c r="L17" t="n">
-        <v>80911</v>
-      </c>
-      <c r="M17" t="n">
-        <v>180757.47357</v>
-      </c>
-      <c r="N17" t="n">
-        <v>693.34387</v>
-      </c>
-      <c r="O17" t="n">
-        <v>17.8663</v>
-      </c>
-      <c r="P17" t="n">
-        <v>343</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4364.39591</v>
-      </c>
-      <c r="R17" t="n">
-        <v>169.0392</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3318</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4553.4</v>
-      </c>
-      <c r="C18" t="n">
-        <v>75722</v>
-      </c>
-      <c r="D18" t="n">
-        <v>164119.81426</v>
-      </c>
-      <c r="E18" t="n">
-        <v>23849.01755</v>
-      </c>
-      <c r="F18" t="n">
-        <v>438.1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3593</v>
-      </c>
-      <c r="H18" t="n">
-        <v>525.2100799999999</v>
-      </c>
-      <c r="I18" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="J18" t="n">
-        <v>222</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5184.5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>83017</v>
-      </c>
-      <c r="M18" t="n">
-        <v>193566.77736</v>
-      </c>
-      <c r="N18" t="n">
-        <v>683.98977</v>
-      </c>
-      <c r="O18" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>326</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4388.7457</v>
-      </c>
-      <c r="R18" t="n">
-        <v>168.2</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3154</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4915.7829000003</v>
-      </c>
-      <c r="C19" t="n">
-        <v>81196</v>
-      </c>
-      <c r="D19" t="n">
-        <v>181864.60194</v>
-      </c>
-      <c r="E19" t="n">
-        <v>26414.37664</v>
-      </c>
-      <c r="F19" t="n">
-        <v>428.4259</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3453</v>
-      </c>
-      <c r="H19" t="n">
-        <v>547.30171</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7.7144</v>
-      </c>
-      <c r="J19" t="n">
-        <v>218</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5529.6339000004</v>
-      </c>
-      <c r="L19" t="n">
-        <v>88074</v>
-      </c>
-      <c r="M19" t="n">
-        <v>213943.55899</v>
-      </c>
-      <c r="N19" t="n">
-        <v>799.36158</v>
-      </c>
-      <c r="O19" t="n">
-        <v>19.0321</v>
-      </c>
-      <c r="P19" t="n">
-        <v>334</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4317.91712</v>
-      </c>
-      <c r="R19" t="n">
-        <v>158.6786</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2873</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4718.4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>90171</v>
-      </c>
-      <c r="D20" t="n">
-        <v>192545.49</v>
-      </c>
-      <c r="E20" t="n">
-        <v>28273.22</v>
-      </c>
-      <c r="F20" t="n">
-        <v>438.51</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3358</v>
-      </c>
-      <c r="H20" t="n">
-        <v>639.04</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="J20" t="n">
-        <v>203</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5305.23</v>
-      </c>
-      <c r="L20" t="n">
-        <v>96544</v>
-      </c>
-      <c r="M20" t="n">
-        <v>225816.86</v>
-      </c>
-      <c r="N20" t="n">
-        <v>743.74</v>
-      </c>
-      <c r="O20" t="n">
-        <v>17.62</v>
-      </c>
-      <c r="P20" t="n">
-        <v>266</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3615.37</v>
-      </c>
-      <c r="R20" t="n">
-        <v>123.23</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2546</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4884.84</v>
-      </c>
-      <c r="C21" t="n">
-        <v>97737</v>
-      </c>
-      <c r="D21" t="n">
-        <v>212745.29</v>
-      </c>
-      <c r="E21" t="n">
-        <v>30662.35253</v>
-      </c>
-      <c r="F21" t="n">
-        <v>406.0812</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3309</v>
-      </c>
-      <c r="H21" t="n">
-        <v>593.89464</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6.7506</v>
-      </c>
-      <c r="J21" t="n">
-        <v>190</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5427.0769</v>
-      </c>
-      <c r="L21" t="n">
-        <v>103805</v>
-      </c>
-      <c r="M21" t="n">
-        <v>248443.27073</v>
-      </c>
-      <c r="N21" t="n">
-        <v>750.79943</v>
-      </c>
-      <c r="O21" t="n">
-        <v>14.3191</v>
-      </c>
-      <c r="P21" t="n">
-        <v>245</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3690.94265</v>
-      </c>
-      <c r="R21" t="n">
-        <v>115.0865</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2324</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>4805.41</v>
-      </c>
-      <c r="C22" t="n">
-        <v>110378</v>
-      </c>
-      <c r="D22" t="n">
-        <v>223434.16</v>
-      </c>
-      <c r="E22" t="n">
-        <v>34882.16751</v>
-      </c>
-      <c r="F22" t="n">
-        <v>432.2673</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3746</v>
-      </c>
-      <c r="H22" t="n">
-        <v>962.31661</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7.7765</v>
-      </c>
-      <c r="J22" t="n">
-        <v>183</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5366.9756</v>
-      </c>
-      <c r="L22" t="n">
-        <v>116722</v>
-      </c>
-      <c r="M22" t="n">
-        <v>263947.39286</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1211.47779</v>
-      </c>
-      <c r="O22" t="n">
-        <v>18.0454</v>
-      </c>
-      <c r="P22" t="n">
-        <v>235</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3457.25537</v>
-      </c>
-      <c r="R22" t="n">
-        <v>103.4711</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2180</v>
-      </c>
+        <v>311979.83974</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
